--- a/data/avgrfu_OD.xlsx
+++ b/data/avgrfu_OD.xlsx
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="L112">
-        <v>7502.3</v>
+        <v>7502.299999999999</v>
       </c>
       <c r="M112">
         <v>0.8140849999999999</v>
@@ -14830,7 +14830,7 @@
         </is>
       </c>
       <c r="L256">
-        <v>8076.95</v>
+        <v>8076.950000000001</v>
       </c>
       <c r="M256">
         <v>0.9639249999999999</v>
@@ -15920,7 +15920,7 @@
         </is>
       </c>
       <c r="L276">
-        <v>6131.2</v>
+        <v>6131.200000000001</v>
       </c>
       <c r="M276">
         <v>0.92145</v>
